--- a/src/test/resources/input.xlsx
+++ b/src/test/resources/input.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessio\Progetti\personal\rabdomante\src\test\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessio\Progetti\personal\rabdomante\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="7095" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Waters" sheetId="1" r:id="rId1"/>
+    <sheet name="Salts" sheetId="2" r:id="rId2"/>
+    <sheet name="Target" sheetId="3" r:id="rId3"/>
+    <sheet name="Recipe" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -24,66 +27,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Calcio</t>
-  </si>
-  <si>
-    <t>Magnesio</t>
-  </si>
-  <si>
-    <t>Sodio</t>
-  </si>
-  <si>
-    <t>Solfati</t>
-  </si>
-  <si>
-    <t>Cloruri</t>
-  </si>
-  <si>
-    <t>Bicarbonati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boario             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distillata         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolomiti           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levissima          </t>
-  </si>
-  <si>
     <t xml:space="preserve">Milano             </t>
   </si>
   <si>
-    <t xml:space="preserve">Norda              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Bernardo       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sant'Anna Rebruant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sant'Anna Vinadio  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vera               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitasnella         </t>
-  </si>
-  <si>
     <t>Litri disponibili</t>
+  </si>
+  <si>
+    <t>Calcio (Ca)</t>
+  </si>
+  <si>
+    <t>Magnesio (Mg)</t>
+  </si>
+  <si>
+    <t>Sodio (Na)</t>
+  </si>
+  <si>
+    <t>Solfati (SO4)</t>
+  </si>
+  <si>
+    <t>Cloruri (Cl)</t>
+  </si>
+  <si>
+    <t>Bicarbonati (HCO3)</t>
+  </si>
+  <si>
+    <t>Grammi disponibili</t>
+  </si>
+  <si>
+    <t>Calcio (Ca) ppm</t>
+  </si>
+  <si>
+    <t>Magnesio (Mg) ppm</t>
+  </si>
+  <si>
+    <t>Sodio (Na) ppm</t>
+  </si>
+  <si>
+    <t>Solfati (SO4) ppm</t>
+  </si>
+  <si>
+    <t>Cloruri (Cl) ppm</t>
+  </si>
+  <si>
+    <t>Bicarbonati (HCO3) ppm</t>
+  </si>
+  <si>
+    <t>Litri necessari</t>
+  </si>
+  <si>
+    <t>Yellow dry</t>
+  </si>
+  <si>
+    <t>Boario</t>
+  </si>
+  <si>
+    <t>Distillata</t>
+  </si>
+  <si>
+    <t>Dolomiti</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Levissima</t>
+  </si>
+  <si>
+    <t>Norda</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>Sant'Anna Rebruant</t>
+  </si>
+  <si>
+    <t>Sant'Anna Vinadio</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Vitasnella</t>
+  </si>
+  <si>
+    <t>Gypsum</t>
+  </si>
+  <si>
+    <t>Table Salt</t>
+  </si>
+  <si>
+    <t>Epsom Salt</t>
+  </si>
+  <si>
+    <t>Calcium Chloride</t>
+  </si>
+  <si>
+    <t>Baking Soda</t>
+  </si>
+  <si>
+    <t>Chalk</t>
+  </si>
+  <si>
+    <t>Pickling Lime</t>
+  </si>
+  <si>
+    <t>Magnesium Chloride</t>
   </si>
 </sst>
 </file>
@@ -403,41 +457,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -445,7 +504,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>131</v>
@@ -471,7 +530,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -497,7 +556,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -523,7 +582,7 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -549,7 +608,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -575,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -601,7 +660,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -627,7 +686,7 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -653,7 +712,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -679,7 +738,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -705,7 +764,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -731,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -750,9 +809,358 @@
       </c>
       <c r="H13">
         <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/input.xlsx
+++ b/src/test/resources/input.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="7095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Waters" sheetId="1" r:id="rId1"/>
     <sheet name="Salts" sheetId="2" r:id="rId2"/>
     <sheet name="Target" sheetId="3" r:id="rId3"/>
-    <sheet name="Recipe" sheetId="4" r:id="rId4"/>
+    <sheet name="Recipe" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -457,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1157,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/test/resources/input.xlsx
+++ b/src/test/resources/input.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessio\Progetti\personal\rabdomante\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessio\Progetti\personal\rabdomante\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Acque Disponibili" sheetId="1" r:id="rId1"/>
-    <sheet name="Sali" sheetId="2" r:id="rId2"/>
-    <sheet name="Obiettivo" sheetId="3" r:id="rId3"/>
-    <sheet name="Acque Commerciali" sheetId="5" r:id="rId4"/>
-    <sheet name="Ricetta" sheetId="6" r:id="rId5"/>
+    <sheet name="U1. Acque Disponibili" sheetId="1" r:id="rId1"/>
+    <sheet name="U2. Sali" sheetId="2" r:id="rId2"/>
+    <sheet name="U3. Obiettivo" sheetId="3" r:id="rId3"/>
+    <sheet name="D1. Acque Commerciali" sheetId="5" r:id="rId4"/>
+    <sheet name="R. Ricetta" sheetId="6" r:id="rId5"/>
+    <sheet name="D2. Profili Comuni" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
@@ -14767,8 +14768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14785,4 +14786,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>